--- a/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_20.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_8_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>93.30979364653277</v>
+        <v>93.01032732144705</v>
       </c>
       <c r="D2" t="n">
-        <v>9.07474428133891</v>
+        <v>10.73276536108961</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>93.26087338483363</v>
+        <v>93.4921218227388</v>
       </c>
       <c r="D3" t="n">
-        <v>10.83331938711378</v>
+        <v>10.27016564418022</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>90.55387445642758</v>
+        <v>91.56044488705292</v>
       </c>
       <c r="D4" t="n">
-        <v>9.079268147077967</v>
+        <v>10.89761814929656</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.19177586298649</v>
+        <v>88.53748665136794</v>
       </c>
       <c r="D5" t="n">
-        <v>10.95173801871242</v>
+        <v>8.643670426660794</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.41956188014669</v>
+        <v>89.24262478199867</v>
       </c>
       <c r="D6" t="n">
-        <v>10.28983173134148</v>
+        <v>8.509662969662726</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.44452191592916</v>
+        <v>88.86264612518642</v>
       </c>
       <c r="D7" t="n">
-        <v>11.18109249911299</v>
+        <v>10.51613535684666</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.24042270359459</v>
+        <v>86.45232717797825</v>
       </c>
       <c r="D8" t="n">
-        <v>9.801222020148083</v>
+        <v>9.530015146897592</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>86.81531038272337</v>
+        <v>86.3591537596657</v>
       </c>
       <c r="D9" t="n">
-        <v>12.25899854913167</v>
+        <v>9.534344553825932</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>86.71900044813208</v>
+        <v>84.03553650722387</v>
       </c>
       <c r="D10" t="n">
-        <v>10.073980973704</v>
+        <v>8.693391292864913</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>84.33219082444982</v>
+        <v>83.0982679663004</v>
       </c>
       <c r="D11" t="n">
-        <v>10.66669732430371</v>
+        <v>9.8048090650136</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>83.86701265024367</v>
+        <v>82.47645108958957</v>
       </c>
       <c r="D12" t="n">
-        <v>10.75091757253517</v>
+        <v>8.673148210525092</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.94847222246784</v>
+        <v>81.57443099059074</v>
       </c>
       <c r="D13" t="n">
-        <v>11.17043395265629</v>
+        <v>10.04072204872375</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.40346257250332</v>
+        <v>80.37501199693077</v>
       </c>
       <c r="D14" t="n">
-        <v>10.94013321079742</v>
+        <v>10.00077284390858</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>80.36808805016541</v>
+        <v>78.29318719103658</v>
       </c>
       <c r="D15" t="n">
-        <v>11.51179086600638</v>
+        <v>9.428856093372756</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.09896850751288</v>
+        <v>78.33744567397325</v>
       </c>
       <c r="D16" t="n">
-        <v>9.706444475831875</v>
+        <v>10.09612914939371</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.21488979696446</v>
+        <v>76.76324754831234</v>
       </c>
       <c r="D17" t="n">
-        <v>9.41091580667668</v>
+        <v>10.14563838993846</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>76.24059535917772</v>
+        <v>75.57394589770772</v>
       </c>
       <c r="D18" t="n">
-        <v>9.49398274832798</v>
+        <v>9.680866256061925</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.53568672524922</v>
+        <v>74.66654119154268</v>
       </c>
       <c r="D19" t="n">
-        <v>9.629183584341634</v>
+        <v>8.272447361474635</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>73.91726838045788</v>
+        <v>74.52387722820086</v>
       </c>
       <c r="D20" t="n">
-        <v>10.76608471702588</v>
+        <v>9.550610841252595</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.39114702538247</v>
+        <v>73.50787659572983</v>
       </c>
       <c r="D21" t="n">
-        <v>11.61941108421449</v>
+        <v>8.965813472650639</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.70241415655556</v>
+        <v>70.88497603967288</v>
       </c>
       <c r="D22" t="n">
-        <v>10.26157257831409</v>
+        <v>10.63913431961266</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.67194928482024</v>
+        <v>69.74482241570927</v>
       </c>
       <c r="D23" t="n">
-        <v>9.318607434106667</v>
+        <v>9.542000782383491</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.22715326893989</v>
+        <v>68.74532153881792</v>
       </c>
       <c r="D24" t="n">
-        <v>9.28781452669225</v>
+        <v>9.93299466122324</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.53086971747339</v>
+        <v>68.91940717813453</v>
       </c>
       <c r="D25" t="n">
-        <v>9.479025491012706</v>
+        <v>10.56626305167712</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.71041363808311</v>
+        <v>68.14563599076273</v>
       </c>
       <c r="D26" t="n">
-        <v>10.84171076721676</v>
+        <v>9.169584353550611</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.4355970740025</v>
+        <v>67.0441835121361</v>
       </c>
       <c r="D27" t="n">
-        <v>10.82216553346646</v>
+        <v>9.585775136467321</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.77750148499052</v>
+        <v>67.4278767002929</v>
       </c>
       <c r="D28" t="n">
-        <v>10.02917417423671</v>
+        <v>8.567407557872455</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.40675831318133</v>
+        <v>65.92229232269335</v>
       </c>
       <c r="D29" t="n">
-        <v>9.666533498300929</v>
+        <v>9.704646106418906</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>63.97223093111025</v>
+        <v>62.3686977595943</v>
       </c>
       <c r="D30" t="n">
-        <v>10.69758870792814</v>
+        <v>10.33069547393785</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>64.00497198819969</v>
+        <v>61.70993382788266</v>
       </c>
       <c r="D31" t="n">
-        <v>8.757063502917013</v>
+        <v>12.38787139626844</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.25496312194329</v>
+        <v>60.7454244332808</v>
       </c>
       <c r="D32" t="n">
-        <v>9.800003162885005</v>
+        <v>9.691315549516764</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.92478330344657</v>
+        <v>60.74441561097465</v>
       </c>
       <c r="D33" t="n">
-        <v>9.094749080676227</v>
+        <v>10.29299894211198</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.25797565726744</v>
+        <v>60.0067173735098</v>
       </c>
       <c r="D34" t="n">
-        <v>9.379187737652886</v>
+        <v>10.22781852284871</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>55.53965707868942</v>
+        <v>57.80595428316352</v>
       </c>
       <c r="D35" t="n">
-        <v>10.42606752135749</v>
+        <v>9.82135640642538</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.20626768387088</v>
+        <v>56.47813866782602</v>
       </c>
       <c r="D36" t="n">
-        <v>10.15222999858255</v>
+        <v>10.47329780671815</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.2063858394794</v>
+        <v>54.15809547655294</v>
       </c>
       <c r="D37" t="n">
-        <v>9.667091788160434</v>
+        <v>10.37719342067725</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>56.56570295553411</v>
+        <v>54.91350617277629</v>
       </c>
       <c r="D38" t="n">
-        <v>9.941269118633825</v>
+        <v>10.18435322547645</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.37738447416805</v>
+        <v>53.94168963212587</v>
       </c>
       <c r="D39" t="n">
-        <v>8.918544590438154</v>
+        <v>10.18151390856662</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>52.06571606575016</v>
+        <v>52.05911171140356</v>
       </c>
       <c r="D40" t="n">
-        <v>10.29947500364232</v>
+        <v>9.38745654686139</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>52.03606669776504</v>
+        <v>49.76311769625099</v>
       </c>
       <c r="D41" t="n">
-        <v>10.40234964389137</v>
+        <v>10.02615397468315</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>51.3338049998809</v>
+        <v>53.11744277335061</v>
       </c>
       <c r="D42" t="n">
-        <v>9.785873974262785</v>
+        <v>10.48989199165615</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.8793191272776</v>
+        <v>49.82169209250951</v>
       </c>
       <c r="D43" t="n">
-        <v>9.042941253053938</v>
+        <v>9.592227859034498</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.86132179018625</v>
+        <v>47.44575087007174</v>
       </c>
       <c r="D44" t="n">
-        <v>10.40232984214154</v>
+        <v>10.03476406218584</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>48.15467014419321</v>
+        <v>46.92151949136042</v>
       </c>
       <c r="D45" t="n">
-        <v>10.41574135375561</v>
+        <v>8.751348030441873</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.60883579094243</v>
+        <v>45.45403063428829</v>
       </c>
       <c r="D46" t="n">
-        <v>9.148668389715626</v>
+        <v>9.893124137371451</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>46.16926462220886</v>
+        <v>44.99352027614282</v>
       </c>
       <c r="D47" t="n">
-        <v>9.164098251414385</v>
+        <v>9.428389491111698</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.12153089586952</v>
+        <v>42.48184239596825</v>
       </c>
       <c r="D48" t="n">
-        <v>9.716360187172803</v>
+        <v>9.757940923594614</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.48370892067264</v>
+        <v>44.9801084923997</v>
       </c>
       <c r="D49" t="n">
-        <v>10.52685475428176</v>
+        <v>9.312918829670179</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.05266603693818</v>
+        <v>41.87148838328175</v>
       </c>
       <c r="D50" t="n">
-        <v>9.847752214792461</v>
+        <v>9.540838466588029</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.69620226513578</v>
+        <v>42.44874470773006</v>
       </c>
       <c r="D51" t="n">
-        <v>9.218913065458588</v>
+        <v>8.462112970357323</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.5456471804047</v>
+        <v>40.84197437251462</v>
       </c>
       <c r="D52" t="n">
-        <v>9.743197732932163</v>
+        <v>10.1157391424391</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>39.67658053348543</v>
+        <v>39.4543922173397</v>
       </c>
       <c r="D53" t="n">
-        <v>9.045391574569511</v>
+        <v>9.640483429194022</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.26087203908506</v>
+        <v>37.38326135406864</v>
       </c>
       <c r="D54" t="n">
-        <v>10.01120176121233</v>
+        <v>10.23872384113788</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.36838552217138</v>
+        <v>37.20222219208887</v>
       </c>
       <c r="D55" t="n">
-        <v>9.782825665669609</v>
+        <v>9.342362685920829</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.22640703012792</v>
+        <v>34.64297066158813</v>
       </c>
       <c r="D56" t="n">
-        <v>9.257457222560619</v>
+        <v>10.68923649062136</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.05920323545183</v>
+        <v>36.01873298652546</v>
       </c>
       <c r="D57" t="n">
-        <v>9.423262632148688</v>
+        <v>10.34416829912503</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.46169760956464</v>
+        <v>35.4121783049698</v>
       </c>
       <c r="D58" t="n">
-        <v>9.608198071050648</v>
+        <v>8.829638623457507</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.72758833516066</v>
+        <v>33.722923553382</v>
       </c>
       <c r="D59" t="n">
-        <v>9.609776324049319</v>
+        <v>10.42297318379388</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.6038434938398</v>
+        <v>31.58954772006345</v>
       </c>
       <c r="D60" t="n">
-        <v>9.572839356797274</v>
+        <v>9.595862601215838</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.41533299840681</v>
+        <v>30.03312848157554</v>
       </c>
       <c r="D61" t="n">
-        <v>10.47352973121285</v>
+        <v>10.31510927170176</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.74460627015586</v>
+        <v>29.95561948084804</v>
       </c>
       <c r="D62" t="n">
-        <v>10.6139298309479</v>
+        <v>9.30259737195825</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.28955587445028</v>
+        <v>29.79942495011854</v>
       </c>
       <c r="D63" t="n">
-        <v>10.37540741442307</v>
+        <v>9.217528310964443</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.86997614236207</v>
+        <v>28.66379367145697</v>
       </c>
       <c r="D64" t="n">
-        <v>10.54893381564195</v>
+        <v>10.26833125754568</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.32085347922212</v>
+        <v>26.9258706085855</v>
       </c>
       <c r="D65" t="n">
-        <v>10.37560458958882</v>
+        <v>11.048239066096</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.62976185981064</v>
+        <v>25.50887989675931</v>
       </c>
       <c r="D66" t="n">
-        <v>8.830507994630084</v>
+        <v>9.743259978296752</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.40671547467698</v>
+        <v>24.35344311499176</v>
       </c>
       <c r="D67" t="n">
-        <v>8.513352708033965</v>
+        <v>10.31519319334553</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>25.20607158141102</v>
+        <v>25.21673689984151</v>
       </c>
       <c r="D68" t="n">
-        <v>10.64249535091834</v>
+        <v>10.32430396359637</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.92858512019244</v>
+        <v>22.54506377946058</v>
       </c>
       <c r="D69" t="n">
-        <v>9.735923169885416</v>
+        <v>9.411336464555234</v>
       </c>
     </row>
   </sheetData>
